--- a/Produccion-fiscalizada-crudo-2017.xlsx
+++ b/Produccion-fiscalizada-crudo-2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9DFEB-DC4B-43F2-8A50-3FBAD644301A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5305465-DC1D-408D-928A-C3296649D854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2177,7 +2177,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2188,6 +2188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2506,7 +2507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q474"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2533,41 +2536,41 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="8">
         <v>42736</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="8">
         <v>42767</v>
       </c>
-      <c r="H1" s="1">
-        <v>42798</v>
-      </c>
-      <c r="I1" s="1">
-        <v>42829</v>
-      </c>
-      <c r="J1" s="1">
-        <v>42860</v>
-      </c>
-      <c r="K1" s="1">
-        <v>42891</v>
-      </c>
-      <c r="L1" s="1">
-        <v>42922</v>
-      </c>
-      <c r="M1" s="1">
-        <v>42953</v>
-      </c>
-      <c r="N1" s="1">
-        <v>42984</v>
-      </c>
-      <c r="O1" s="1">
-        <v>43015</v>
-      </c>
-      <c r="P1" s="1">
-        <v>43046</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>43077</v>
+      <c r="H1" s="8">
+        <v>42795</v>
+      </c>
+      <c r="I1" s="8">
+        <v>42826</v>
+      </c>
+      <c r="J1" s="8">
+        <v>42856</v>
+      </c>
+      <c r="K1" s="8">
+        <v>42887</v>
+      </c>
+      <c r="L1" s="8">
+        <v>42917</v>
+      </c>
+      <c r="M1" s="8">
+        <v>42948</v>
+      </c>
+      <c r="N1" s="8">
+        <v>42979</v>
+      </c>
+      <c r="O1" s="8">
+        <v>43009</v>
+      </c>
+      <c r="P1" s="8">
+        <v>43040</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>43070</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -27344,21 +27347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F930251186CB0499D7625AA475F410A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="955d26415cea78e33d9eadf3baeb1059">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e003a7f0c3253a501f94ede70caf17ea">
     <xsd:element name="properties">
@@ -27472,10 +27460,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E07E86-E6DB-410F-8458-473F0AF2238C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{107CC21E-FA63-4FA1-B5EF-9D93BDB0510A}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -27490,16 +27500,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{107CC21E-FA63-4FA1-B5EF-9D93BDB0510A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E07E86-E6DB-410F-8458-473F0AF2238C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Produccion-fiscalizada-crudo-2017.xlsx
+++ b/Produccion-fiscalizada-crudo-2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5305465-DC1D-408D-928A-C3296649D854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D5AF3A-8F69-4218-83B9-4FC191CC1EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2188,7 +2188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -27347,6 +27347,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F930251186CB0499D7625AA475F410A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="955d26415cea78e33d9eadf3baeb1059">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e003a7f0c3253a501f94ede70caf17ea">
     <xsd:element name="properties">
@@ -27460,32 +27475,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{107CC21E-FA63-4FA1-B5EF-9D93BDB0510A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E07E86-E6DB-410F-8458-473F0AF2238C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -27500,9 +27493,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E07E86-E6DB-410F-8458-473F0AF2238C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{107CC21E-FA63-4FA1-B5EF-9D93BDB0510A}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Produccion-fiscalizada-crudo-2017.xlsx
+++ b/Produccion-fiscalizada-crudo-2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D5AF3A-8F69-4218-83B9-4FC191CC1EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896EA649-849C-4754-8974-EDF014DAA1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2507,9 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q474"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27347,18 +27345,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27476,18 +27474,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E07E86-E6DB-410F-8458-473F0AF2238C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5377395D-BEE8-42AE-AB1E-F3A4CE6082D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5377395D-BEE8-42AE-AB1E-F3A4CE6082D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E07E86-E6DB-410F-8458-473F0AF2238C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
